--- a/public/excelFiles/filled_template.xlsx
+++ b/public/excelFiles/filled_template.xlsx
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E5" s="7">
         <f>NOW()</f>
-        <v>45574.747905093</v>
+        <v>45583.485775463</v>
       </c>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="21">
@@ -1165,13 +1165,13 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19">
-        <v>87300</v>
+        <v>433740</v>
       </c>
       <c r="D10" s="20">
         <v>52.03</v>
       </c>
       <c r="E10" s="21">
-        <v>45422.19</v>
+        <v>225674.922</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="19"/>
@@ -1184,13 +1184,13 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19">
-        <v>94940</v>
+        <v>409920</v>
       </c>
       <c r="D11" s="20">
         <v>52.17</v>
       </c>
       <c r="E11" s="21">
-        <v>49530.198</v>
+        <v>213855.264</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="19"/>
@@ -1203,13 +1203,13 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19">
-        <v>67170</v>
+        <v>382450</v>
       </c>
       <c r="D12" s="20">
         <v>52.09</v>
       </c>
       <c r="E12" s="21">
-        <v>34988.853</v>
+        <v>199218.205</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="19"/>
@@ -1222,13 +1222,13 @@
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19">
-        <v>38580</v>
+        <v>382720</v>
       </c>
       <c r="D13" s="20">
         <v>52.12</v>
       </c>
       <c r="E13" s="21">
-        <v>20107.896</v>
+        <v>199473.664</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="19"/>
@@ -1245,14 +1245,14 @@
       </c>
       <c r="C14" s="27">
         <f>SUM(C10:C13)</f>
-        <v>287990</v>
+        <v>1608830</v>
       </c>
       <c r="D14" s="27">
         <v>0</v>
       </c>
       <c r="E14" s="27">
         <f>SUM(E10:E13)</f>
-        <v>150049.137</v>
+        <v>838222.055</v>
       </c>
       <c r="F14" s="28">
         <v>0</v>
@@ -1366,14 +1366,14 @@
       </c>
       <c r="C20" s="31">
         <f>C19+C14</f>
-        <v>287990</v>
+        <v>1608830</v>
       </c>
       <c r="D20" s="31">
         <v>0</v>
       </c>
       <c r="E20" s="31">
         <f>E19+E14</f>
-        <v>150049.137</v>
+        <v>838222.055</v>
       </c>
       <c r="F20" s="32">
         <v>0</v>
